--- a/ui-testsuite/src/main/resources/TestData/Order_AssignRule_EMEA_ ITM_IM_ESP_VERTICA_SAAS.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_AssignRule_EMEA_ ITM_IM_ESP_VERTICA_SAAS.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="242">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -737,6 +737,24 @@
   </si>
   <si>
     <t>0158168090</t>
+  </si>
+  <si>
+    <t>uhumov4507577895</t>
+  </si>
+  <si>
+    <t>ixekhy0712316667</t>
+  </si>
+  <si>
+    <t>8702422467</t>
+  </si>
+  <si>
+    <t>npxpel2262446474</t>
+  </si>
+  <si>
+    <t>hyrzrh0376576363</t>
+  </si>
+  <si>
+    <t>8932977091</t>
   </si>
 </sst>
 </file>
@@ -746,7 +764,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -781,6 +799,16 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -1544,7 +1572,7 @@
         <v>129</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>133</v>
@@ -1556,7 +1584,7 @@
         <v>131</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>153</v>
@@ -1669,7 +1697,7 @@
         <v>10814017373464</v>
       </c>
       <c r="AX2" s="17" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="AY2" s="20" t="s">
         <v>88</v>
@@ -1757,7 +1785,7 @@
         <v>129</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>133</v>
@@ -1769,7 +1797,7 @@
         <v>131</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="J3" s="14" t="s">
         <v>160</v>
@@ -1882,7 +1910,7 @@
         <v>10817344536729</v>
       </c>
       <c r="AX3" s="17" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="AY3" s="20" t="s">
         <v>101</v>
@@ -1970,7 +1998,7 @@
         <v>145</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>146</v>
@@ -1982,7 +2010,7 @@
         <v>148</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="J4" s="14" t="s">
         <v>146</v>
@@ -2095,7 +2123,7 @@
         <v>10183244739200</v>
       </c>
       <c r="AX4" s="17" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="AY4" s="20" t="s">
         <v>101</v>
@@ -2183,7 +2211,7 @@
         <v>142</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>143</v>
@@ -2195,7 +2223,7 @@
         <v>139</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>172</v>
@@ -2308,7 +2336,7 @@
         <v>10832684493575</v>
       </c>
       <c r="AX5" s="17" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="AY5" s="20" t="s">
         <v>128</v>
@@ -2396,7 +2424,7 @@
         <v>178</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>179</v>
@@ -2408,7 +2436,7 @@
         <v>137</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>112</v>
@@ -2521,7 +2549,7 @@
         <v>10601214451158</v>
       </c>
       <c r="AX6" s="17" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="AY6" s="20" t="s">
         <v>88</v>
@@ -2609,7 +2637,7 @@
         <v>203</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>204</v>
@@ -2621,7 +2649,7 @@
         <v>206</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="J7" s="14" t="s">
         <v>112</v>
@@ -2734,7 +2762,7 @@
         <v>10601214451158</v>
       </c>
       <c r="AX7" s="17" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="AY7" s="20" t="s">
         <v>128</v>

--- a/ui-testsuite/src/main/resources/TestData/Order_AssignRule_EMEA_ ITM_IM_ESP_VERTICA_SAAS.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_AssignRule_EMEA_ ITM_IM_ESP_VERTICA_SAAS.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="251">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -755,6 +755,33 @@
   </si>
   <si>
     <t>8932977091</t>
+  </si>
+  <si>
+    <t>kpqyvd7889237381</t>
+  </si>
+  <si>
+    <t>fthhrm6824335355</t>
+  </si>
+  <si>
+    <t>2305405349</t>
+  </si>
+  <si>
+    <t>vifsyf5048846270</t>
+  </si>
+  <si>
+    <t>vlfnpv8051505524</t>
+  </si>
+  <si>
+    <t>0825101640</t>
+  </si>
+  <si>
+    <t>mzpofs1496822498</t>
+  </si>
+  <si>
+    <t>hsjvwi0040186193</t>
+  </si>
+  <si>
+    <t>6320442144</t>
   </si>
 </sst>
 </file>
@@ -764,7 +791,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -799,6 +826,21 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -1572,7 +1614,7 @@
         <v>129</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>133</v>
@@ -1584,7 +1626,7 @@
         <v>131</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>153</v>
@@ -1697,7 +1739,7 @@
         <v>10814017373464</v>
       </c>
       <c r="AX2" s="17" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="AY2" s="20" t="s">
         <v>88</v>
@@ -1785,7 +1827,7 @@
         <v>129</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>133</v>
@@ -1797,7 +1839,7 @@
         <v>131</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="J3" s="14" t="s">
         <v>160</v>
@@ -1910,7 +1952,7 @@
         <v>10817344536729</v>
       </c>
       <c r="AX3" s="17" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="AY3" s="20" t="s">
         <v>101</v>
@@ -1998,7 +2040,7 @@
         <v>145</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>146</v>
@@ -2010,7 +2052,7 @@
         <v>148</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="J4" s="14" t="s">
         <v>146</v>
@@ -2123,7 +2165,7 @@
         <v>10183244739200</v>
       </c>
       <c r="AX4" s="17" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="AY4" s="20" t="s">
         <v>101</v>
@@ -2211,7 +2253,7 @@
         <v>142</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>143</v>
@@ -2223,7 +2265,7 @@
         <v>139</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>172</v>
@@ -2336,7 +2378,7 @@
         <v>10832684493575</v>
       </c>
       <c r="AX5" s="17" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="AY5" s="20" t="s">
         <v>128</v>
@@ -2424,7 +2466,7 @@
         <v>178</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>179</v>
@@ -2436,7 +2478,7 @@
         <v>137</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>112</v>
@@ -2549,7 +2591,7 @@
         <v>10601214451158</v>
       </c>
       <c r="AX6" s="17" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="AY6" s="20" t="s">
         <v>88</v>
@@ -2637,7 +2679,7 @@
         <v>203</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>204</v>
@@ -2649,7 +2691,7 @@
         <v>206</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="J7" s="14" t="s">
         <v>112</v>
@@ -2762,7 +2804,7 @@
         <v>10601214451158</v>
       </c>
       <c r="AX7" s="17" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="AY7" s="20" t="s">
         <v>128</v>
